--- a/build/Time Log/finished time log.xlsx
+++ b/build/Time Log/finished time log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kailuu\Desktop\Capstone498\build\Time Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kailuu\Desktop\00943752\Capstone498\build\Time Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692230A2-CB31-46DC-92F0-9ABBF3E05B75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A60B9D-9548-42CD-A583-5A37EF40BE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E0530676-827A-4153-9404-B59528E124CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Week</t>
   </si>
@@ -316,13 +316,103 @@
       </rPr>
       <t>This week I spent twenty minutes entering fake users. I spent an additional 17 hours fixing bugs I did not know I had until this point. I spent an additional four hours making changes to my database calls and cleaning them up.</t>
     </r>
+  </si>
+  <si>
+    <t>12:15- 7Pm</t>
+  </si>
+  <si>
+    <t>10:20Pm-  1:13 AM</t>
+  </si>
+  <si>
+    <t>4/24-25/2021</t>
+  </si>
+  <si>
+    <t>1)	This week I did research on the geometry behind the color wheel. I needed this math to calculate color schemes as geometry determines the Hue which dictates different types of colors. I spent about 3 hours on this including doing the math myself and testing it.  I also did research into PHP and how to use this language as it is not fresh for me. This took me about an hour and a half. Lastly, designed the skeletons of my algorithms and designed the basics of a code that generates a color palette from a given photo. This took me the most time at about 8 hours.</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This week I set up my amazon we server. This took most 2 days to set up due to some unique windows-based technical errors. I also spend 35 minutes following a tutorial on how to create a color wheel. I then applied the color wheel to mt webpage. I also spend an hour drawing UI diagrams.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This week I spent 3 hours relearning TK inter and creating my python user interfaces.I also spent 5 hours messing with my website before switching my project idea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I spent 12 hours this week crafting my UI, hooking it up to my back end and testing its usability. I spent an additional 5 hours creating and deploying a bot that allows users to share their images to social media. I spent an additional 7 hours trying to fix a bug to which I found the problem but no solution.</t>
+    </r>
+  </si>
+  <si>
+    <t>1) this week I spent 3 and a half hours creating extra user-proof text fields and entries. Additionall, I spend around 7 hours testing these functions, demoing them and my video, and fixing them as I found bugs. I spent 5 hours  digitizing all of my notes and log and around 2 and a half hours making sure I had contained everythign I had needed in my file repo for deployment</t>
+  </si>
+  <si>
+    <t>12:05:00 - 3:55 Pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +425,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -679,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3E2F60-D8A1-4968-8392-5038DDBDB5A9}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -723,6 +819,9 @@
       <c r="E3" s="1">
         <v>44236</v>
       </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
@@ -766,6 +865,9 @@
       <c r="E8" s="1">
         <v>44244</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
@@ -807,7 +909,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>44251</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -817,6 +919,9 @@
       <c r="E14" s="1">
         <v>44253</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
@@ -860,7 +965,9 @@
       <c r="E19" s="1">
         <v>44259</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
@@ -1086,7 +1193,7 @@
         <v>44301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>61</v>
       </c>
@@ -1094,7 +1201,7 @@
         <v>44302</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>62</v>
       </c>
@@ -1102,18 +1209,49 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>44307</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44309</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="1">
+        <v>44311</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/build/Time Log/finished time log.xlsx
+++ b/build/Time Log/finished time log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kailuu\Desktop\00943752\Capstone498\build\Time Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A60B9D-9548-42CD-A583-5A37EF40BE0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9BAB97-2B43-4C7C-9AC5-E88529BD6847}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E0530676-827A-4153-9404-B59528E124CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Week</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>12:00pm-5 pm</t>
-  </si>
-  <si>
-    <t>8 pm- 1:05 am</t>
   </si>
   <si>
     <t>TWO:</t>
@@ -402,10 +399,19 @@
     </r>
   </si>
   <si>
-    <t>1) this week I spent 3 and a half hours creating extra user-proof text fields and entries. Additionall, I spend around 7 hours testing these functions, demoing them and my video, and fixing them as I found bugs. I spent 5 hours  digitizing all of my notes and log and around 2 and a half hours making sure I had contained everythign I had needed in my file repo for deployment</t>
-  </si>
-  <si>
     <t>12:05:00 - 3:55 Pm</t>
+  </si>
+  <si>
+    <t>12:00pm - 4:15</t>
+  </si>
+  <si>
+    <t>8Pm - 9:12 pm</t>
+  </si>
+  <si>
+    <t>1) this week I spent 3 and a half hours creating extra user-proof text fields and entries. Additionall, I spend around 7 hours testing these functions, demoing them and my video, and fixing them as I found bugs. I spent 5 hours  digitizing all of my notes and log and around 2 and a half hours making sure I had contained everythign I had needed in my file repo for deployment. all time on the 26th (5 hours) was spent double checking and fixing my project before the demo.</t>
+  </si>
+  <si>
+    <t>8 pm- 4:00 am</t>
   </si>
 </sst>
 </file>
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3E2F60-D8A1-4968-8392-5038DDBDB5A9}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -798,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -820,7 +826,7 @@
         <v>44236</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -849,29 +855,29 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
         <v>44244</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1">
         <v>44245</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
         <v>44246</v>
@@ -887,7 +893,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <v>44246</v>
@@ -895,7 +901,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1">
         <v>44249</v>
@@ -903,10 +909,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
         <v>44252</v>
@@ -914,18 +920,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>44253</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>44255</v>
@@ -941,10 +947,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>44258</v>
@@ -952,26 +958,26 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="1">
         <v>44259</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
         <v>44260</v>
@@ -979,7 +985,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1">
         <v>44262</v>
@@ -987,12 +993,12 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1">
         <v>44266</v>
@@ -1000,7 +1006,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
         <v>44267</v>
@@ -1008,7 +1014,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1">
         <v>44268</v>
@@ -1016,21 +1022,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
         <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
       </c>
       <c r="E27" s="1">
         <v>44274</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1">
         <v>44276</v>
@@ -1038,7 +1044,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1">
         <v>44277</v>
@@ -1046,7 +1052,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1">
         <v>44278</v>
@@ -1054,23 +1060,23 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1">
         <v>44280</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1">
         <v>44281</v>
@@ -1078,7 +1084,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1">
         <v>44281</v>
@@ -1086,12 +1092,12 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1">
         <v>44286</v>
@@ -1099,7 +1105,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1">
         <v>44288</v>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1">
         <v>44289</v>
@@ -1115,7 +1121,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1">
         <v>44291</v>
@@ -1123,31 +1129,31 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1">
         <v>44294</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" s="1">
         <v>44297</v>
@@ -1155,7 +1161,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1">
         <v>44297</v>
@@ -1163,31 +1169,31 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
         <v>57</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="1">
         <v>44300</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="1">
         <v>44301</v>
@@ -1195,7 +1201,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" s="4">
         <v>44302</v>
@@ -1203,7 +1209,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="1">
         <v>44303</v>
@@ -1214,10 +1220,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
         <v>63</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
       </c>
       <c r="E53" s="1">
         <v>44307</v>
@@ -1225,29 +1231,45 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1">
         <v>44309</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
         <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E56" s="1">
         <v>44311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="1">
+        <v>44312</v>
       </c>
     </row>
   </sheetData>
